--- a/data/crimenes_spain_2017_norm.xlsx
+++ b/data/crimenes_spain_2017_norm.xlsx
@@ -456,12 +456,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Orden publico</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Tráfico de drogas</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Orden publico</t>
         </is>
       </c>
     </row>
@@ -481,10 +481,10 @@
         <v>0.197826308501136</v>
       </c>
       <c r="E2" t="n">
+        <v>0.4076420902447651</v>
+      </c>
+      <c r="F2" t="n">
         <v>0.1408763105992938</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.4076420902447651</v>
       </c>
     </row>
     <row r="3">
@@ -503,10 +503,10 @@
         <v>1.242030305539455</v>
       </c>
       <c r="E3" t="n">
+        <v>0.4554111120311335</v>
+      </c>
+      <c r="F3" t="n">
         <v>0.2070050509232425</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.4554111120311335</v>
       </c>
     </row>
     <row r="4">
@@ -525,10 +525,10 @@
         <v>3.413821726658313</v>
       </c>
       <c r="E4" t="n">
+        <v>0.5563934227601578</v>
+      </c>
+      <c r="F4" t="n">
         <v>0.3326669366264172</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.5563934227601578</v>
       </c>
     </row>
     <row r="5">
@@ -547,10 +547,10 @@
         <v>2.871034392286333</v>
       </c>
       <c r="E5" t="n">
+        <v>0.528838795723375</v>
+      </c>
+      <c r="F5" t="n">
         <v>0.3648577737936463</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.528838795723375</v>
       </c>
     </row>
     <row r="6">
@@ -569,10 +569,10 @@
         <v>0.7764122180771489</v>
       </c>
       <c r="E6" t="n">
+        <v>0.3219270172515007</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.2146180115010005</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.3219270172515007</v>
       </c>
     </row>
     <row r="7">
@@ -591,10 +591,10 @@
         <v>1.210550748347248</v>
       </c>
       <c r="E7" t="n">
+        <v>0.2776355600401825</v>
+      </c>
+      <c r="F7" t="n">
         <v>0.1895683662639956</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.2776355600401825</v>
       </c>
     </row>
     <row r="8">
@@ -613,10 +613,10 @@
         <v>3.931771991324867</v>
       </c>
       <c r="E8" t="n">
+        <v>0.5404907724414497</v>
+      </c>
+      <c r="F8" t="n">
         <v>0.4117618976170666</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.5404907724414497</v>
       </c>
     </row>
     <row r="9">
@@ -635,10 +635,10 @@
         <v>4.546321523501548</v>
       </c>
       <c r="E9" t="n">
+        <v>0.2983518031473053</v>
+      </c>
+      <c r="F9" t="n">
         <v>0.2512804629440061</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.2983518031473053</v>
       </c>
     </row>
     <row r="10">
@@ -657,10 +657,10 @@
         <v>1.283509570150679</v>
       </c>
       <c r="E10" t="n">
+        <v>0.4128575641403716</v>
+      </c>
+      <c r="F10" t="n">
         <v>0.2078330594992347</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.4128575641403716</v>
       </c>
     </row>
     <row r="11">
@@ -679,10 +679,10 @@
         <v>0.6930931979320153</v>
       </c>
       <c r="E11" t="n">
+        <v>0.2438661251983017</v>
+      </c>
+      <c r="F11" t="n">
         <v>0.189958876470256</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.2438661251983017</v>
       </c>
     </row>
     <row r="12">
@@ -701,10 +701,10 @@
         <v>3.166233265915439</v>
       </c>
       <c r="E12" t="n">
+        <v>0.5794728562714694</v>
+      </c>
+      <c r="F12" t="n">
         <v>0.6565218787119972</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.5794728562714694</v>
       </c>
     </row>
     <row r="13">
@@ -723,10 +723,10 @@
         <v>2.130943133968358</v>
       </c>
       <c r="E13" t="n">
+        <v>0.4002970715288282</v>
+      </c>
+      <c r="F13" t="n">
         <v>0.2469918100922557</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.4002970715288282</v>
       </c>
     </row>
     <row r="14">
@@ -745,10 +745,10 @@
         <v>1.205868560326924</v>
       </c>
       <c r="E14" t="n">
+        <v>0.3024821809574272</v>
+      </c>
+      <c r="F14" t="n">
         <v>0.1948878481336443</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.3024821809574272</v>
       </c>
     </row>
     <row r="15">
@@ -767,10 +767,10 @@
         <v>2.176910332149399</v>
       </c>
       <c r="E15" t="n">
+        <v>0.2819298419519329</v>
+      </c>
+      <c r="F15" t="n">
         <v>0.190527929720941</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.2819298419519329</v>
       </c>
     </row>
     <row r="16">
@@ -789,10 +789,10 @@
         <v>1.698903881142792</v>
       </c>
       <c r="E16" t="n">
+        <v>0.2526483438588598</v>
+      </c>
+      <c r="F16" t="n">
         <v>0.09998803714555581</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.2526483438588598</v>
       </c>
     </row>
     <row r="17">
@@ -811,10 +811,10 @@
         <v>1.467910554634915</v>
       </c>
       <c r="E17" t="n">
+        <v>0.1892428241166963</v>
+      </c>
+      <c r="F17" t="n">
         <v>0.1738988113504777</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.1892428241166963</v>
       </c>
     </row>
     <row r="18">
@@ -833,10 +833,10 @@
         <v>4.385987215800742</v>
       </c>
       <c r="E18" t="n">
+        <v>0.466567335709818</v>
+      </c>
+      <c r="F18" t="n">
         <v>0.5555583806680939</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.466567335709818</v>
       </c>
     </row>
     <row r="19">
@@ -855,10 +855,10 @@
         <v>2.495284032570023</v>
       </c>
       <c r="E19" t="n">
+        <v>0.3994191056919393</v>
+      </c>
+      <c r="F19" t="n">
         <v>0.6751051188597453</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.3994191056919393</v>
       </c>
     </row>
     <row r="20">
@@ -877,10 +877,10 @@
         <v>2.300555748000663</v>
       </c>
       <c r="E20" t="n">
+        <v>0.3238098106842177</v>
+      </c>
+      <c r="F20" t="n">
         <v>0.1393135232013495</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.3238098106842177</v>
       </c>
     </row>
     <row r="21">
@@ -899,10 +899,10 @@
         <v>0.3829027055244045</v>
       </c>
       <c r="E21" t="n">
+        <v>0.5151281002378679</v>
+      </c>
+      <c r="F21" t="n">
         <v>0.1763005262846179</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.5151281002378679</v>
       </c>
     </row>
     <row r="22">
@@ -921,10 +921,10 @@
         <v>2.67954776688505</v>
       </c>
       <c r="E22" t="n">
+        <v>0.2966710089666911</v>
+      </c>
+      <c r="F22" t="n">
         <v>0.2643414759382696</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.2966710089666911</v>
       </c>
     </row>
     <row r="23">
@@ -943,10 +943,10 @@
         <v>0.6866906859772411</v>
       </c>
       <c r="E23" t="n">
+        <v>0.3121321299896551</v>
+      </c>
+      <c r="F23" t="n">
         <v>0.1917383084222167</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.3121321299896551</v>
       </c>
     </row>
     <row r="24">
@@ -965,10 +965,10 @@
         <v>1.144788660533491</v>
       </c>
       <c r="E24" t="n">
+        <v>0.2790223058403354</v>
+      </c>
+      <c r="F24" t="n">
         <v>0.205679299733733</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.2790223058403354</v>
       </c>
     </row>
     <row r="25">
@@ -987,10 +987,10 @@
         <v>1.109128503938402</v>
       </c>
       <c r="E25" t="n">
+        <v>0.2944393034407336</v>
+      </c>
+      <c r="F25" t="n">
         <v>0.08855317396713791</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.2944393034407336</v>
       </c>
     </row>
     <row r="26">
@@ -1009,10 +1009,10 @@
         <v>2.567502109263248</v>
       </c>
       <c r="E26" t="n">
+        <v>0.2638000395700059</v>
+      </c>
+      <c r="F26" t="n">
         <v>0.2023983062218149</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.2638000395700059</v>
       </c>
     </row>
     <row r="27">
@@ -1031,10 +1031,10 @@
         <v>0.9724949655405321</v>
       </c>
       <c r="E27" t="n">
+        <v>0.3940011757495404</v>
+      </c>
+      <c r="F27" t="n">
         <v>0.2501594766663748</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.3940011757495404</v>
       </c>
     </row>
     <row r="28">
@@ -1053,10 +1053,10 @@
         <v>0.9999601242895222</v>
       </c>
       <c r="E28" t="n">
+        <v>0.2668605239668357</v>
+      </c>
+      <c r="F28" t="n">
         <v>0.1533681172223194</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.2668605239668357</v>
       </c>
     </row>
     <row r="29">
@@ -1075,10 +1075,10 @@
         <v>5.203035704049516</v>
       </c>
       <c r="E29" t="n">
+        <v>0.5664135432085106</v>
+      </c>
+      <c r="F29" t="n">
         <v>0.2381780798847503</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.5664135432085106</v>
       </c>
     </row>
     <row r="30">
@@ -1097,10 +1097,10 @@
         <v>3.760797475423893</v>
       </c>
       <c r="E30" t="n">
+        <v>0.4894875183631537</v>
+      </c>
+      <c r="F30" t="n">
         <v>0.5508208941580549</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.4894875183631537</v>
       </c>
     </row>
     <row r="31">
@@ -1119,10 +1119,10 @@
         <v>2.974014906953373</v>
       </c>
       <c r="E31" t="n">
+        <v>0.3622028783933471</v>
+      </c>
+      <c r="F31" t="n">
         <v>0.1929553515804558</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.3622028783933471</v>
       </c>
     </row>
     <row r="32">
@@ -1141,10 +1141,10 @@
         <v>1.259188828440435</v>
       </c>
       <c r="E32" t="n">
+        <v>0.4444195865083888</v>
+      </c>
+      <c r="F32" t="n">
         <v>0.2025585870480411</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.4444195865083888</v>
       </c>
     </row>
     <row r="33">
@@ -1163,10 +1163,10 @@
         <v>0.743718527109687</v>
       </c>
       <c r="E33" t="n">
+        <v>0.2784849110322616</v>
+      </c>
+      <c r="F33" t="n">
         <v>0.1310517228387114</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.2784849110322616</v>
       </c>
     </row>
     <row r="34">
@@ -1185,10 +1185,10 @@
         <v>0.8687556335689549</v>
       </c>
       <c r="E34" t="n">
+        <v>0.4042332811486946</v>
+      </c>
+      <c r="F34" t="n">
         <v>0.1284849059885826</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.4042332811486946</v>
       </c>
     </row>
     <row r="35">
@@ -1207,10 +1207,10 @@
         <v>0.4022045838753668</v>
       </c>
       <c r="E35" t="n">
+        <v>0.3896356906292616</v>
+      </c>
+      <c r="F35" t="n">
         <v>0.1571111655763152</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.3896356906292616</v>
       </c>
     </row>
     <row r="36">
@@ -1229,10 +1229,10 @@
         <v>1.440258399301051</v>
       </c>
       <c r="E36" t="n">
+        <v>0.2933467475046994</v>
+      </c>
+      <c r="F36" t="n">
         <v>0.1789732863837336</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.2933467475046994</v>
       </c>
     </row>
     <row r="37">
@@ -1251,10 +1251,10 @@
         <v>1.289187323194985</v>
       </c>
       <c r="E37" t="n">
+        <v>0.2413407548161228</v>
+      </c>
+      <c r="F37" t="n">
         <v>0.1863517220732087</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.2413407548161228</v>
       </c>
     </row>
     <row r="38">
@@ -1273,10 +1273,10 @@
         <v>1.185614543538401</v>
       </c>
       <c r="E38" t="n">
+        <v>0.2822891770329525</v>
+      </c>
+      <c r="F38" t="n">
         <v>0.1077831403216728</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.2822891770329525</v>
       </c>
     </row>
     <row r="39">
@@ -1295,10 +1295,10 @@
         <v>0.6377592523899702</v>
       </c>
       <c r="E39" t="n">
+        <v>0.3123718787216181</v>
+      </c>
+      <c r="F39" t="n">
         <v>0.1757091817809102</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.3123718787216181</v>
       </c>
     </row>
     <row r="40">
@@ -1317,10 +1317,10 @@
         <v>4.96033579553272</v>
       </c>
       <c r="E40" t="n">
+        <v>0.3675843955290238</v>
+      </c>
+      <c r="F40" t="n">
         <v>0.2130552013191967</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.3675843955290238</v>
       </c>
     </row>
     <row r="41">
@@ -1339,10 +1339,10 @@
         <v>0.7436871105502157</v>
       </c>
       <c r="E41" t="n">
+        <v>0.191555770899298</v>
+      </c>
+      <c r="F41" t="n">
         <v>0.1239478517583693</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.191555770899298</v>
       </c>
     </row>
     <row r="42">
@@ -1361,10 +1361,10 @@
         <v>3.934044258301928</v>
       </c>
       <c r="E42" t="n">
+        <v>0.4268468422454333</v>
+      </c>
+      <c r="F42" t="n">
         <v>0.3733389759810485</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.4268468422454333</v>
       </c>
     </row>
     <row r="43">
@@ -1383,10 +1383,10 @@
         <v>0.2898658441413653</v>
       </c>
       <c r="E43" t="n">
+        <v>0.2750009290571928</v>
+      </c>
+      <c r="F43" t="n">
         <v>0.09662194804712178</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.2750009290571928</v>
       </c>
     </row>
     <row r="44">
@@ -1405,10 +1405,10 @@
         <v>2.41893535832242</v>
       </c>
       <c r="E44" t="n">
+        <v>0.2833368339293744</v>
+      </c>
+      <c r="F44" t="n">
         <v>0.25232484215601</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.2833368339293744</v>
       </c>
     </row>
     <row r="45">
@@ -1427,10 +1427,10 @@
         <v>2.908108408720154</v>
       </c>
       <c r="E45" t="n">
+        <v>0.4827537199070641</v>
+      </c>
+      <c r="F45" t="n">
         <v>0.3170726432349597</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.4827537199070641</v>
       </c>
     </row>
     <row r="46">
@@ -1449,10 +1449,10 @@
         <v>0.9165108662375496</v>
       </c>
       <c r="E46" t="n">
+        <v>0.2233513875704953</v>
+      </c>
+      <c r="F46" t="n">
         <v>0.05583784689262382</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.2233513875704953</v>
       </c>
     </row>
     <row r="47">
@@ -1471,10 +1471,10 @@
         <v>0.5050531302032167</v>
       </c>
       <c r="E47" t="n">
+        <v>0.3352582528107116</v>
+      </c>
+      <c r="F47" t="n">
         <v>0.136009161992976</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.3352582528107116</v>
       </c>
     </row>
     <row r="48">
@@ -1493,10 +1493,10 @@
         <v>0.7764113201955846</v>
       </c>
       <c r="E48" t="n">
+        <v>0.2726329826640984</v>
+      </c>
+      <c r="F48" t="n">
         <v>0.1955845310416358</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.2726329826640984</v>
       </c>
     </row>
     <row r="49">
@@ -1515,10 +1515,10 @@
         <v>1.555632734233843</v>
       </c>
       <c r="E49" t="n">
+        <v>0.3783133426774662</v>
+      </c>
+      <c r="F49" t="n">
         <v>0.2211996047349119</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0.3783133426774662</v>
       </c>
     </row>
     <row r="50">
@@ -1537,10 +1537,10 @@
         <v>6.741142521881772</v>
       </c>
       <c r="E50" t="n">
+        <v>1.903804015948849</v>
+      </c>
+      <c r="F50" t="n">
         <v>2.71800950704647</v>
-      </c>
-      <c r="F50" t="n">
-        <v>1.903804015948849</v>
       </c>
     </row>
     <row r="51">
@@ -1559,10 +1559,10 @@
         <v>5.657249510207394</v>
       </c>
       <c r="E51" t="n">
+        <v>1.924392251423007</v>
+      </c>
+      <c r="F51" t="n">
         <v>0.7419343619944123</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1.924392251423007</v>
       </c>
     </row>
   </sheetData>
